--- a/src/PeriodEnd/PaymentsDue/SFA.DAS.ProviderPayments.Calc.PaymentsDue.UnitTests/ScenarioData/LearnerWithWithdrawnCommitmentAndRemovedPeriodsInTheIlr.xlsx
+++ b/src/PeriodEnd/PaymentsDue/SFA.DAS.ProviderPayments.Calc.PaymentsDue.UnitTests/ScenarioData/LearnerWithWithdrawnCommitmentAndRemovedPeriodsInTheIlr.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\das-providerpayments\src\PeriodEnd\PaymentsDue\SFA.DAS.ProviderPayments.Calc.PaymentsDue.UnitTests\ScenarioData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SFA\DasProviderPayments\src\PeriodEnd\PaymentsDue\SFA.DAS.ProviderPayments.Calc.PaymentsDue.UnitTests\ScenarioData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AED8E2E6-F603-4FA5-9973-6DF6AA325856}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CD82227-785E-4B32-B80A-B06F7D308BE9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{0D15C4CB-DC3A-4FDC-843E-A5A8882681B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{0D15C4CB-DC3A-4FDC-843E-A5A8882681B7}"/>
   </bookViews>
   <sheets>
     <sheet name="PastPayments" sheetId="1" r:id="rId1"/>
     <sheet name="RawEarnings" sheetId="2" r:id="rId2"/>
     <sheet name="RawEarningsMathsAndEnglish" sheetId="3" r:id="rId3"/>
     <sheet name="Datalocks" sheetId="4" r:id="rId4"/>
-    <sheet name="Commitments" sheetId="5" r:id="rId5"/>
+    <sheet name="DatalockValidationErrors" sheetId="6" r:id="rId5"/>
+    <sheet name="Commitments" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
   <si>
     <t>CommitmentId</t>
   </si>
@@ -200,6 +201,9 @@
   </si>
   <si>
     <t>TransferApprovalDate</t>
+  </si>
+  <si>
+    <t>RuleId</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFDF27E-9B7C-47AE-A86A-FAE84BC024A3}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2096,6 +2100,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B65817C-30BB-4FD2-8E78-0B75439D5C20}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAC57EC-71F8-44A3-A54A-6DD5C7C43883}">
   <dimension ref="A1:P2"/>
   <sheetViews>

--- a/src/PeriodEnd/PaymentsDue/SFA.DAS.ProviderPayments.Calc.PaymentsDue.UnitTests/ScenarioData/LearnerWithWithdrawnCommitmentAndRemovedPeriodsInTheIlr.xlsx
+++ b/src/PeriodEnd/PaymentsDue/SFA.DAS.ProviderPayments.Calc.PaymentsDue.UnitTests/ScenarioData/LearnerWithWithdrawnCommitmentAndRemovedPeriodsInTheIlr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SFA\DasProviderPayments\src\PeriodEnd\PaymentsDue\SFA.DAS.ProviderPayments.Calc.PaymentsDue.UnitTests\ScenarioData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\das-providerpayments\src\PeriodEnd\PaymentsDue\SFA.DAS.ProviderPayments.Calc.PaymentsDue.UnitTests\ScenarioData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CD82227-785E-4B32-B80A-B06F7D308BE9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6178728-20AF-4276-90A2-631093BD5601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{0D15C4CB-DC3A-4FDC-843E-A5A8882681B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{0D15C4CB-DC3A-4FDC-843E-A5A8882681B7}"/>
   </bookViews>
   <sheets>
     <sheet name="PastPayments" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="59">
   <si>
     <t>CommitmentId</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>RuleId</t>
+  </si>
+  <si>
+    <t>TransactionType16</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29113545-4422-48BA-A59E-5EDA0DBD892B}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="J38:K39"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,11 +1440,11 @@
     <col min="10" max="10" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="28" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1524,10 +1527,13 @@
         <v>44</v>
       </c>
       <c r="AB1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1610,10 +1616,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1696,10 +1705,13 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1782,10 +1794,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1868,6 +1883,9 @@
         <v>0</v>
       </c>
       <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <v>1</v>
       </c>
     </row>
@@ -2103,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B65817C-30BB-4FD2-8E78-0B75439D5C20}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
